--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E8" s="3">
         <v>77700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>77700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>83000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E9" s="3">
         <v>38400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E10" s="3">
         <v>39300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>38900</v>
       </c>
       <c r="F10" s="3">
         <v>38900</v>
       </c>
       <c r="G10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="H10" s="3">
         <v>40200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -885,51 +905,57 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>20100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E15" s="3">
         <v>28200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>27400</v>
       </c>
       <c r="G15" s="3">
         <v>27400</v>
       </c>
       <c r="H15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I15" s="3">
         <v>28200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>29900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E17" s="3">
         <v>78100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>75000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>135500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>142800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>49400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>329100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E21" s="3">
         <v>28000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>346700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-58900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>316900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>45700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-58900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>316900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-58900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>316900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-49400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-329100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-58900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>316900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-58900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>316900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E41" s="3">
         <v>72500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E43" s="3">
         <v>86000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>90500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>88200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>83400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>104400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,37 +1745,43 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E45" s="3">
         <v>73300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>76700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>77600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>84400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,66 +1809,75 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E47" s="3">
         <v>233600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>380900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>387100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>240300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>253400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>252300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1945100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2028900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2031300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2037900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2158300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2175600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2168900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3011200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1774,7 +1885,7 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -1783,19 +1894,22 @@
         <v>500</v>
       </c>
       <c r="H49" s="3">
+        <v>500</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1969,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5300</v>
       </c>
       <c r="F52" s="3">
         <v>5300</v>
@@ -1876,13 +1996,16 @@
         <v>5300</v>
       </c>
       <c r="J52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2491700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2504300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2624700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2644000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2621500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2638900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2639400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3275500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E57" s="3">
         <v>55800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>71400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,37 +2157,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,45 +2221,51 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1389300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1388400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1492100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1493200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1497300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1459900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1415900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2292200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -2127,20 +2273,23 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1539000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1559600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1661400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1663700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1661900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1602200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1546000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2446000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-745200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-745000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-717300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-691000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-703200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-617200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-449700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-738300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>952800</v>
+      </c>
+      <c r="E76" s="3">
         <v>944800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>963300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>980300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>959600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1036800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1093400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>829500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-58900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>316900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E83" s="3">
         <v>28200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>27400</v>
       </c>
       <c r="G83" s="3">
         <v>27400</v>
       </c>
       <c r="H83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I83" s="3">
         <v>28200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E89" s="3">
         <v>28300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E94" s="3">
         <v>131900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>919100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-15700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-15500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-64100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-15400</v>
       </c>
       <c r="K96" s="3">
         <v>-15400</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-15400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-122100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-930500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E102" s="3">
         <v>38100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,98 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E8" s="3">
         <v>74700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>77700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>77700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>76400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>83000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,63 +764,69 @@
         <v>35100</v>
       </c>
       <c r="E9" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F9" s="3">
         <v>38400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E10" s="3">
         <v>39600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>38900</v>
       </c>
       <c r="G10" s="3">
         <v>38900</v>
       </c>
       <c r="H10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="I10" s="3">
         <v>40200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,54 +928,60 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>20100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E15" s="3">
         <v>27400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>27900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>27400</v>
       </c>
       <c r="H15" s="3">
         <v>27400</v>
       </c>
       <c r="I15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="J15" s="3">
         <v>28200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E17" s="3">
         <v>71100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>75000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>135500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>95200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>142800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>23800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>49400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>329100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E21" s="3">
         <v>54800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>73000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-31500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>346700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>27400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-58900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>316900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>27400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>45700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-58900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>316900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>27400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-58900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>316900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-23800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-49400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-329100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>27400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-58900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>316900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>27400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-58900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>316900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136900</v>
+      </c>
+      <c r="E41" s="3">
         <v>146200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E43" s="3">
         <v>86500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>86000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>90500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>88200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>86700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>75900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>104400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,40 +1844,46 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E45" s="3">
         <v>80700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>76700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>76700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>77600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1821,63 +1926,69 @@
         <v>227000</v>
       </c>
       <c r="E47" s="3">
+        <v>227000</v>
+      </c>
+      <c r="F47" s="3">
         <v>233600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>380900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>387100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>240300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>253400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>252300</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1934600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1945100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2028900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2031300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2037900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2158300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2175600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2168900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3011200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1888,7 +1999,7 @@
         <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -1897,19 +2008,22 @@
         <v>500</v>
       </c>
       <c r="I49" s="3">
+        <v>500</v>
+      </c>
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,19 +2089,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5300</v>
       </c>
       <c r="G52" s="3">
         <v>5300</v>
@@ -1999,13 +2119,16 @@
         <v>5300</v>
       </c>
       <c r="K52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2466500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2491700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2504300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2624700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2644000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2621500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2638900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2639400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3275500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E57" s="3">
         <v>44600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>71400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2294,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>17400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,40 +2364,46 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1645000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1389300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1388400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1492100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1493200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1497300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1459900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1415900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2292200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2265,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -2276,20 +2422,23 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1784200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1539000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1559600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1661400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1663700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1661900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1602200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1546000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2446000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-772900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-745200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-745000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-717300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-691000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-703200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-617200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-449700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-738300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>682300</v>
+      </c>
+      <c r="E76" s="3">
         <v>952800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>944800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>963300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>980300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>959600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1036800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1093400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>829500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>27400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-58900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>316900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E83" s="3">
         <v>27400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>27400</v>
       </c>
       <c r="H83" s="3">
         <v>27400</v>
       </c>
       <c r="I83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="J83" s="3">
         <v>28200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E89" s="3">
         <v>16300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E94" s="3">
         <v>78800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>131900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>919100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3446,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-15700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-64100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-15400</v>
       </c>
       <c r="L96" s="3">
         <v>-15400</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>-15400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-122100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-930500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E102" s="3">
         <v>74200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E8" s="3">
         <v>73900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>77700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>77700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35100</v>
+        <v>37300</v>
       </c>
       <c r="E9" s="3">
         <v>35100</v>
       </c>
       <c r="F9" s="3">
+        <v>35100</v>
+      </c>
+      <c r="G9" s="3">
         <v>38400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E10" s="3">
         <v>38800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>38900</v>
       </c>
       <c r="H10" s="3">
         <v>38900</v>
       </c>
       <c r="I10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J10" s="3">
         <v>40200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,57 +951,63 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>20100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E15" s="3">
         <v>27900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>27400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>27400</v>
       </c>
       <c r="I15" s="3">
         <v>27400</v>
       </c>
       <c r="J15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K15" s="3">
         <v>28200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E17" s="3">
         <v>73800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>75000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>135500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>142800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-57800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>23800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>49400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>329100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E21" s="3">
         <v>28000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>73000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-31500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>346700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-58900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>316900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>45700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-58900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>316900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-28100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>39500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-58900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>316900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-28100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-23800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-49400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-329100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-58900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>316900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-28100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-58900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>316900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-28100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E41" s="3">
         <v>136900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>72500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E43" s="3">
         <v>89500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>86500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>86000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>90500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>88200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>86700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>83400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>75900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>104400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,43 +1943,49 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E45" s="3">
         <v>75300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>80700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>76700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>77600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,78 +2019,87 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>227000</v>
+        <v>218700</v>
       </c>
       <c r="E47" s="3">
         <v>227000</v>
       </c>
       <c r="F47" s="3">
+        <v>227000</v>
+      </c>
+      <c r="G47" s="3">
         <v>233600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>380900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>387100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>240300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>253400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>252300</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1922700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1934600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1945100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2028900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2031300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2037900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2158300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2175600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2168900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3011200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2002,7 +2113,7 @@
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
@@ -2011,19 +2122,22 @@
         <v>500</v>
       </c>
       <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,22 +2209,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5300</v>
       </c>
       <c r="H52" s="3">
         <v>5300</v>
@@ -2122,13 +2242,16 @@
         <v>5300</v>
       </c>
       <c r="L52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2350600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2466500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2491700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2504300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2624700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2644000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2621500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2638900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2639400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3275500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E57" s="3">
         <v>48800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>71400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>74600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,43 +2431,49 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,57 +2507,63 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1593800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1645000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1389300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1388400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1492100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1493200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1497300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1459900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1415900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2292200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -2425,20 +2571,23 @@
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1740800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1784200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1539000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1559600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1661400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1663700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1661900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1602200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1546000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2446000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-799000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-772900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-745200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-745000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-717300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-691000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-703200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-617200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-449700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-738300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>609800</v>
+      </c>
+      <c r="E76" s="3">
         <v>682300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>952800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>944800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>963300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>980300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>959600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1036800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1093400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>829500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-58900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>316900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-28100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E83" s="3">
         <v>27900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>27400</v>
       </c>
       <c r="I83" s="3">
         <v>27400</v>
       </c>
       <c r="J83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K83" s="3">
         <v>28200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E89" s="3">
         <v>27700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,32 +3524,35 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>78800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>131900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>919100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-22000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-16300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-16000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-15700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-15500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-15600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-64100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-15400</v>
       </c>
       <c r="M96" s="3">
         <v>-15400</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-15400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-122100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-930500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>74200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>75100</v>
+      </c>
+      <c r="F8" s="3">
         <v>73100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>73900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>74700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>77700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>75500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>76000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>77700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>76400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>83000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>114500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F9" s="3">
         <v>37300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>35100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>35100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>38400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>36600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>37100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>37500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>38700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>41500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>51700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F10" s="3">
         <v>35800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>38800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>39600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>39300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>38900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>38900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>40200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>37700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>62800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,16 +963,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -954,60 +993,72 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>20100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F15" s="3">
         <v>28300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>27900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>27400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>28200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>27900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>27400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>27400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>28200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>29900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>41600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>71100</v>
+      </c>
+      <c r="F17" s="3">
         <v>76900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>73800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>71100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>78100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>75000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>79800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>135500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>78400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>95200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>142800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-57800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-12200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-28300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>114400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>23800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>49400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>329100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>145700</v>
+      </c>
+      <c r="F21" s="3">
         <v>26100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>28000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>54800</v>
       </c>
       <c r="G21" s="3">
         <v>28000</v>
       </c>
       <c r="H21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J21" s="3">
         <v>29000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>73000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-31500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>27300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>346700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>13500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>27400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>45700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-58900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>316900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-28100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>27400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>45700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-58900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>316900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-28100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>27400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>39500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-58900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>316900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-28100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-23800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-49400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-329100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>27400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>39500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-58900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>316900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-28100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>27400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>39500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-58900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>316900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-28100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F41" s="3">
         <v>38200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>136900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>146200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>72500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>34400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>48400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>46700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>44000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>58800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>66100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +2049,58 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>88900</v>
+      </c>
+      <c r="F43" s="3">
         <v>90200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>89500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>86500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>86000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>90500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>88200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>86700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>83400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>75900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>104400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,46 +2137,58 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F45" s="3">
         <v>71900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>75300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>80700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>73300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>81700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>76700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>83700</v>
       </c>
       <c r="K45" s="3">
         <v>76700</v>
       </c>
       <c r="L45" s="3">
+        <v>83700</v>
+      </c>
+      <c r="M45" s="3">
+        <v>76700</v>
+      </c>
+      <c r="N45" s="3">
         <v>77600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>84400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,92 +2225,110 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>180200</v>
+      </c>
+      <c r="F47" s="3">
         <v>218700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>227000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>227000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>233600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>380900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>387100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>240300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>253400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>252300</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1876200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1868300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1922700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1934600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1945100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2028900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2031300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2037900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2158300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2175600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2168900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3011200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -2116,28 +2337,34 @@
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
       </c>
       <c r="K49" s="3">
+        <v>500</v>
+      </c>
+      <c r="L49" s="3">
+        <v>500</v>
+      </c>
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,28 +2445,34 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>8700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5300</v>
       </c>
       <c r="J52" s="3">
         <v>5300</v>
@@ -2245,13 +2484,19 @@
         <v>5300</v>
       </c>
       <c r="M52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O52" s="3">
         <v>6000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2272100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2254200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2350600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2466500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2491700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2504300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2624700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2644000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2621500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2638900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2639400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3275500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="F57" s="3">
         <v>50800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>48800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>44600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>55800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>54000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>58500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>58800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>71400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>69600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>74600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,46 +2701,58 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F59" s="3">
         <v>16900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>18000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>17200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>19200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>14200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,84 +2789,102 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1529200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1465400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1593800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1645000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1389300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1388400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1492100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1493200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1497300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1459900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1415900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2292200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>17500</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1655200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1591600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1740800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1784200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1539000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1559600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1661400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1663700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1661900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1602200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1546000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2446000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-716200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-704000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-799000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-772900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-745200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-745000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-717300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-691000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-703200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-617200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-449700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-738300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>616900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>662600</v>
+      </c>
+      <c r="F76" s="3">
         <v>609800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>682300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>952800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>944800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>963300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>980300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>959600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1036800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1093400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>829500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>118400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>27400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>39500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-58900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>316900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-28100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F83" s="3">
         <v>28300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>27900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>27400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>28200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>27900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>29900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>41600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F89" s="3">
         <v>32200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>27700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>16300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>28300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>30700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>25300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>17400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>22200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>29900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,32 +3968,38 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>179400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-17700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-14100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>78800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>131900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-31600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-24200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>919100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-29500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +4146,54 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-9400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-22000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-16300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-16000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-15700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-15500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-15600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-64100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-15800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-15400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-196500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-115300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-25900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-20900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-122100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-21700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-30500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>16800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-12900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-930500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-7900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>74200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>38100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-14900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F8" s="3">
         <v>80300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>75100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>73100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>73900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>74700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>77700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>75500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>76000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>77700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>76400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>83000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>114500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F9" s="3">
         <v>36300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>38700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>37300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>35100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>35100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>38400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>36600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>37100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>37500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>38700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>41500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>51700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F10" s="3">
         <v>44000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>36400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>35800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>38800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>39600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>39300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>40200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>41500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>62800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,23 +1003,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -999,66 +1039,78 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>20100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F15" s="3">
         <v>27200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>27400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>28300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>27900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>27400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>28200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>27900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>27400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>27400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>28200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>29900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>41600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>71600</v>
+      </c>
+      <c r="F17" s="3">
         <v>52500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>71100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>76900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>73800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>71100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>78100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>75000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>79800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>135500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>78400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>95200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>142800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>27800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-57800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-28300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1244,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-17300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>114400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>23800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>49400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>329100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F21" s="3">
         <v>37800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>145700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>26100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>28000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>54800</v>
       </c>
       <c r="I21" s="3">
         <v>28000</v>
       </c>
       <c r="J21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="L21" s="3">
         <v>29000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>73000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-31500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>27300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>346700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>13500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1390,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F23" s="3">
         <v>10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>118400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>27400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>45700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-58900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>316900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-28100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F26" s="3">
         <v>10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>118400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>27400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>45700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-58900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>316900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-28100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F27" s="3">
         <v>10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>118400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>27400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>39500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-58900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>316900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-28100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F32" s="3">
         <v>17300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-114400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-23800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-49400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-329100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F33" s="3">
         <v>10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>118400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>27400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>39500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-58900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>316900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-28100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F35" s="3">
         <v>10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>118400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>27400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>39500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-58900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>316900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-28100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F41" s="3">
         <v>43800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>44400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>38200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>136900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>146200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>72500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>34400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>48400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>46700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>44000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>58800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>66100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2235,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F43" s="3">
         <v>91500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>88900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>90200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>89500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>86500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>86000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>90500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>88200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>86700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>83400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>75900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>104400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,52 +2335,64 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>93900</v>
+      </c>
+      <c r="F45" s="3">
         <v>95300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>70000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>71900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>75300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>80700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>73300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>81700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>76700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>83700</v>
       </c>
       <c r="M45" s="3">
         <v>76700</v>
       </c>
       <c r="N45" s="3">
+        <v>83700</v>
+      </c>
+      <c r="O45" s="3">
+        <v>76700</v>
+      </c>
+      <c r="P45" s="3">
         <v>77600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>84400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,96 +2435,114 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>145700</v>
+      </c>
+      <c r="F47" s="3">
         <v>163000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>180200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>218700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>227000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>227000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>233600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>380900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>387100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>240300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>253400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>252300</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1902300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1896400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1876200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1868300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1922700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1934600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1945100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2028900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2031300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2037900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2158300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2175600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2168900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3011200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,10 +2553,10 @@
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -2343,28 +2565,34 @@
         <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
       </c>
       <c r="M49" s="3">
+        <v>500</v>
+      </c>
+      <c r="N49" s="3">
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,34 +2685,40 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5300</v>
       </c>
       <c r="L52" s="3">
         <v>5300</v>
@@ -2490,13 +2730,19 @@
         <v>5300</v>
       </c>
       <c r="O52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>6000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2270200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2261900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2272100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2254200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2350600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2466500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2491700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2504300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2624700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2644000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2621500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2638900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2639400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3275500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F57" s="3">
         <v>71700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>58300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>50800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>48800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>44600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>55800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>54000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>58500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>58800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>71400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>69600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>74600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2975,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F59" s="3">
         <v>13900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>17400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>17800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>17300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>14200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +3075,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1632400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1598400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1529200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1465400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1593800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1645000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1389300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1388400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1492100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1493200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1497300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1459900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1415900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2292200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>17500</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1769200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1711300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1655200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1591600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1740800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1784200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1539000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1559600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1661400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1663700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1661900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1602200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1546000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2446000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-792200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-754700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-716200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-704000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-799000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-772900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-745200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-745000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-717300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-691000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-703200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-617200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-449700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-738300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>550600</v>
+      </c>
+      <c r="F76" s="3">
         <v>616900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>662600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>609800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>682300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>952800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>944800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>963300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>980300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>959600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1036800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1093400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>829500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F81" s="3">
         <v>10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>118400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>27400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>39500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-58900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>316900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-28100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F83" s="3">
         <v>27200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>27400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>28300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>27900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>27400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>28200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>27400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>28200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>29900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>41600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F89" s="3">
         <v>7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>24600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>32200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>27700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>16300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>28300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>30700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>25300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>22200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>29900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4394,27 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3981,25 +4423,31 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>179400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-17700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-14100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>78800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>131900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-31600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-24200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>919100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-29500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4614,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-16700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-14000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-9400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-22000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-16300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-16000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-15700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-15500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-15600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-64100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-15800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-15400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-196500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-115300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-25900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-20900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-122100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-21700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-30500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>16800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-12900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-930500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>74200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>38100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-14900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-7900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -1251,8 +1251,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-29100</v>
       </c>
       <c r="E20" s="3">
         <v>-17200</v>
@@ -1301,8 +1301,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>14400</v>
       </c>
       <c r="E21" s="3">
         <v>10500</v>
@@ -1401,8 +1401,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-15500</v>
       </c>
       <c r="E23" s="3">
         <v>-16200</v>
@@ -1551,8 +1551,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-15500</v>
       </c>
       <c r="E26" s="3">
         <v>-16200</v>
@@ -1601,8 +1601,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-15500</v>
       </c>
       <c r="E27" s="3">
         <v>-16200</v>
@@ -1851,8 +1851,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>29100</v>
       </c>
       <c r="E32" s="3">
         <v>17200</v>
@@ -1901,8 +1901,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-15500</v>
       </c>
       <c r="E33" s="3">
         <v>-16200</v>
@@ -2001,8 +2001,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-15500</v>
       </c>
       <c r="E35" s="3">
         <v>-16200</v>
@@ -3806,8 +3806,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>501000</v>
       </c>
       <c r="E76" s="3">
         <v>550600</v>
@@ -3961,8 +3961,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-15500</v>
       </c>
       <c r="E81" s="3">
         <v>-16200</v>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,149 +755,167 @@
         <v>80200</v>
       </c>
       <c r="E8" s="3">
+        <v>74800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>80200</v>
+      </c>
+      <c r="G8" s="3">
         <v>72700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>80300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>75100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>73100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>73900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>74700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>77700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>75500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>76000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>77700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>76400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>83000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>114500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F9" s="3">
         <v>37800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>36600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>36300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>38700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>37300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>35100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>35100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>38400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>36600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>37100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>37500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>38700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>41500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>51700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F10" s="3">
         <v>42400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>36100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>44000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>36400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>35800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>38800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>39600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>39300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>38900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>40200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>37700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>41500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>62800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,29 +1042,35 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1045,72 +1084,84 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>20100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F15" s="3">
         <v>29900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>26600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>27200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>27400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>28300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>27900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>27400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>28200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>27900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>27400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>27400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>28200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>29900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>41600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F17" s="3">
         <v>66600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>71600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>52500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>71100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>76900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>73800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>71100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>78100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>75000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>79800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>135500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>78400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>95200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>142800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F18" s="3">
         <v>13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>27800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-57800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-28300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-29100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-17200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-17300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>114400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>23800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>49400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>329100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F21" s="3">
         <v>14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>37800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>145700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>26100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>28000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>54800</v>
       </c>
       <c r="K21" s="3">
         <v>28000</v>
       </c>
       <c r="L21" s="3">
+        <v>54800</v>
+      </c>
+      <c r="M21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N21" s="3">
         <v>29000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>73000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-31500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>27300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>346700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>13500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>118400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>27400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>45700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-58900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>316900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-28100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>118400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>27400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>45700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-58900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>316900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-28100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>10600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>118400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>27400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>39500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-58900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>316900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-28100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F32" s="3">
         <v>29100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>17200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>17300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-114400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-23800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-49400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-329100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>10600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>118400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>27400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>39500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-58900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>316900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-28100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>10600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>118400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>27400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>39500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-58900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>316900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-28100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>47800</v>
+      </c>
+      <c r="F41" s="3">
         <v>43000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>36800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>43800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>44400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>38200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>136900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>146200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>72500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>34400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>48400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>46700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>44000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>58800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>66100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2420,70 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>93100</v>
+      </c>
+      <c r="F43" s="3">
         <v>92400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>87000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>91500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>88900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>90200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>89500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>86500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>86000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>90500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>88200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>86700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>83400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>75900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>104400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,58 +2532,70 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>112400</v>
+      </c>
+      <c r="F45" s="3">
         <v>114400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>93900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>95300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>70000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>71900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>75300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>80700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>73300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>81700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>76700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>83700</v>
       </c>
       <c r="O45" s="3">
         <v>76700</v>
       </c>
       <c r="P45" s="3">
+        <v>83700</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>76700</v>
+      </c>
+      <c r="R45" s="3">
         <v>77600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>84400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,113 +2644,131 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>87400</v>
+      </c>
+      <c r="F47" s="3">
         <v>116600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>145700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>163000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>180200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>218700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>227000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>227000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>233600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>380900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>387100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>240300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>253400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>252300</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1912000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1902300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1896400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1876200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1868300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1922700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1934600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1945100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2028900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2031300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2037900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2158300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2175600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2168900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3011200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2559,10 +2780,10 @@
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -2571,28 +2792,34 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
       </c>
       <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,40 +2924,46 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5300</v>
       </c>
       <c r="N52" s="3">
         <v>5300</v>
@@ -2736,13 +2975,19 @@
         <v>5300</v>
       </c>
       <c r="Q52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S52" s="3">
         <v>6000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2195700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2259000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2270200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2261900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2272100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2254200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2350600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2466500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2491700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2504300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2624700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2644000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2621500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2638900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2639400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3275500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F57" s="3">
         <v>59900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>48200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>71700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>58300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>50800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>48800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>44600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>55800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>54000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>58500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>58800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>69600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>74600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,58 +3248,70 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F59" s="3">
         <v>16700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>15900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>16900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>17200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>19200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>17300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>14000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>14200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,58 +3360,70 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1682400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1668000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1632400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1598400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1529200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1465400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1593800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1645000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1389300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1388400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1492100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1493200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1497300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1459900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1415900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2292200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,44 +3436,50 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>17500</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
+      <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1819700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1804600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1769200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1711300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1655200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1591600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1740800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1784200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1539000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1559600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1661400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1663700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1661900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1602200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2446000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-939100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-855600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-792200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-754700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-716200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-704000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-799000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-772900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-745200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-745000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-717300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-691000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-703200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-617200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-449700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-738300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>376100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>454300</v>
+      </c>
+      <c r="F76" s="3">
         <v>501000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>550600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>616900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>662600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>609800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>682300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>952800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>944800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>963300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>980300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>959600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1036800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1093400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>829500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>10600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>118400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>27400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>39500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-58900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>316900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-28100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F83" s="3">
         <v>29900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>26600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>27200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>27400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>28300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>27400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>29900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>41600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F89" s="3">
         <v>35200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>24600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>32200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>27700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>16300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>28300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>30700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>25300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>17400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>22200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>29900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4429,25 +4870,31 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-28800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-40700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-13800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>179400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-14100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>78800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>131900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-22900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-31600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-24200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>919100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-29500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +5081,66 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-13300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-16700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-14000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-9400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-22000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-16300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-16000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-15700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-15500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-15600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-64100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-15400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-15400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>17400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-196500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-115300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-25900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-20900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-122100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-21700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-30500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>16800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-12900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-930500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-7900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-12300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>74200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>38100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-14900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-7500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E8" s="3">
         <v>80200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>80200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>72700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>80300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>75100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>77700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>76400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>83000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>114500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E9" s="3">
         <v>37500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>35100</v>
       </c>
       <c r="L9" s="3">
         <v>35100</v>
       </c>
       <c r="M9" s="3">
+        <v>35100</v>
+      </c>
+      <c r="N9" s="3">
         <v>38400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>51700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E10" s="3">
         <v>42700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>38900</v>
       </c>
       <c r="O10" s="3">
         <v>38900</v>
       </c>
       <c r="P10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>40200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>62800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,32 +1065,35 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1090,78 +1110,84 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>20100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E15" s="3">
         <v>28500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>29900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>26600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>27400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>27400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>27900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>27400</v>
       </c>
       <c r="P15" s="3">
         <v>27400</v>
       </c>
       <c r="Q15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="R15" s="3">
         <v>28200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>29900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E17" s="3">
         <v>128300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>66600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>71600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>71100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>79800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>135500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>95200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>142800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-48100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-57800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-28300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-29200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-17200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>114400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>23800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>49400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>329100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-37900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>145700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>346700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>118400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>316900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-28100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-41400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>118400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>316900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-28100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-41400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>118400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>316900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-28100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E32" s="3">
         <v>18300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>29200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>17200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-114400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-23800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-49400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-329100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-41400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>118400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>316900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-28100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-41400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>118400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>316900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-28100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>29600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>38200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>146200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>66100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E43" s="3">
         <v>98100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>92400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>87000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>91500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>88900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>89500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>86500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>90500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>88200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>86700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>83400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>75900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>104400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,64 +2634,70 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E45" s="3">
         <v>109100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>114400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>95300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>71900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>80700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>81700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>76700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>83700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>76700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>77600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>84400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,120 +2752,129 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E47" s="3">
         <v>69100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>87400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>116600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>145700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>163000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>180200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>218700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>227000</v>
       </c>
       <c r="L47" s="3">
         <v>227000</v>
       </c>
       <c r="M47" s="3">
+        <v>227000</v>
+      </c>
+      <c r="N47" s="3">
         <v>233600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>380900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>387100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>240300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>253400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>252300</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1857400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1882000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1912000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1902300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1896400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1876200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1868300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1922700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1934600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1945100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2028900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2031300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2037900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2158300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2175600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2168900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3011200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2882,7 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2786,7 +2897,7 @@
         <v>300</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -2798,7 +2909,7 @@
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
@@ -2807,19 +2918,22 @@
         <v>500</v>
       </c>
       <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,43 +3047,46 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2000</v>
       </c>
       <c r="I52" s="3">
         <v>2000</v>
       </c>
       <c r="J52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>5300</v>
       </c>
       <c r="O52" s="3">
         <v>5300</v>
@@ -2981,13 +3101,16 @@
         <v>5300</v>
       </c>
       <c r="S52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T52" s="3">
         <v>6000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2154700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2195700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2259000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2270200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2261900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2272100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2254200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2350600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2466500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2491700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2504300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2624700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2644000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2621500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2638900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2639400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3275500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E57" s="3">
         <v>51300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>71700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>71400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>69600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>74600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3388,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17700</v>
+        <v>19500</v>
       </c>
       <c r="E59" s="3">
         <v>17700</v>
       </c>
       <c r="F59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G59" s="3">
         <v>16700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,64 +3506,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1710200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1682400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1668000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1632400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1598400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1529200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1465400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1593800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1645000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1389300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1388400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1492100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1493200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1497300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1459900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1415900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2292200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3442,23 +3588,23 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>17500</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>900</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3466,20 +3612,23 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1836900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1819700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1804600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1769200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1711300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1655200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1591600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1740800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1784200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1539000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1559600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1661400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1663700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1661900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1602200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1546000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2446000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1000300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-939100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-855600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-792200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-754700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-716200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-704000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-799000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-772900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-745200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-745000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-717300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-691000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-703200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-617200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-449700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-738300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>317700</v>
+      </c>
+      <c r="E76" s="3">
         <v>376100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>454300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>501000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>550600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>616900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>662600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>609800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>682300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>952800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>944800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>963300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>980300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>959600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1036800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1093400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>829500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-41400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>118400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-58900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>316900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-28100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E83" s="3">
         <v>28500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>27400</v>
       </c>
       <c r="P83" s="3">
         <v>27400</v>
       </c>
       <c r="Q83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="R83" s="3">
         <v>28200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E89" s="3">
         <v>5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>29900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4876,25 +5097,28 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>179400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>78800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>131900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>919100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5316,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11300</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-13100</v>
       </c>
       <c r="F96" s="3">
         <v>-13100</v>
       </c>
       <c r="G96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-13300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-14000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-9400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-64100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-15400</v>
       </c>
       <c r="T96" s="3">
         <v>-15400</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-15400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>30700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-196500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-115300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-122100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-930500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>74200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBSR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>KBSR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E8" s="3">
         <v>66800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>80200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>80200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>72700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>77700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>75500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>76400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>83000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>114500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>111400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E9" s="3">
         <v>36200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>35100</v>
       </c>
       <c r="M9" s="3">
         <v>35100</v>
       </c>
       <c r="N9" s="3">
+        <v>35100</v>
+      </c>
+      <c r="O9" s="3">
         <v>38400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>37100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>37500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>41500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>51700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E10" s="3">
         <v>30600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>38900</v>
       </c>
       <c r="P10" s="3">
         <v>38900</v>
       </c>
       <c r="Q10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="R10" s="3">
         <v>40200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>62800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>63300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,35 +1085,38 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>18500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1113,81 +1133,87 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>20100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E15" s="3">
         <v>28600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>29900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>26600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>27200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>27900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>27400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>27900</v>
-      </c>
-      <c r="P15" s="3">
-        <v>27400</v>
       </c>
       <c r="Q15" s="3">
         <v>27400</v>
       </c>
       <c r="R15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="S15" s="3">
         <v>28200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>29900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E17" s="3">
         <v>87200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>87000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>66600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>71600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>71100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>135500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>95200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>142800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>138100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-48100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-57800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-28300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-18300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-29100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>114400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>23800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>49400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>329100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-37900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>37800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>145700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-31500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>346700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-66400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>118400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-58900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>316900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-28100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-44100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-41400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>118400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-58900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>316900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-28100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-44100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-41400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>118400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-58900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>316900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-28100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E32" s="3">
         <v>23600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>18300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>29100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-114400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-23800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-49400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-329100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-41400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>118400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-58900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>316900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-28100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-41400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>118400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-58900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>316900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-28100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>146200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>66100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E43" s="3">
         <v>94600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>93100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>92400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>91500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>88900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>89500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>90500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>88200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>86700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>83400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>75900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>104400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>103200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,67 +2733,73 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E45" s="3">
         <v>123600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>109100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>114400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>95300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>80700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>73300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>81700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>83700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>76700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>77600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>84400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>93700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,126 +2857,135 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E47" s="3">
         <v>45300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>69100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>87400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>116600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>145700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>163000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>180200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>218700</v>
-      </c>
-      <c r="L47" s="3">
-        <v>227000</v>
       </c>
       <c r="M47" s="3">
         <v>227000</v>
       </c>
       <c r="N47" s="3">
+        <v>227000</v>
+      </c>
+      <c r="O47" s="3">
         <v>233600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>380900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>387100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>240300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>253400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>252300</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1848900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1857400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1882000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1912000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1902300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1896400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1876200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1868300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1922700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1934600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1945100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2028900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2031300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2037900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2158300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2175600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2168900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3011200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3014300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2885,7 +2996,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2900,7 +3011,7 @@
         <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -2912,7 +3023,7 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
@@ -2921,19 +3032,22 @@
         <v>500</v>
       </c>
       <c r="R49" s="3">
+        <v>500</v>
+      </c>
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,46 +3167,49 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2000</v>
       </c>
       <c r="J52" s="3">
         <v>2000</v>
       </c>
       <c r="K52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>5300</v>
       </c>
       <c r="P52" s="3">
         <v>5300</v>
@@ -3104,13 +3224,16 @@
         <v>5300</v>
       </c>
       <c r="T52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="U52" s="3">
         <v>6000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2147500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2154700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2195700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2259000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2270200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2261900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2272100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2254200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2350600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2466500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2491700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2504300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2624700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2644000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2621500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2638900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2639400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3275500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3294600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E57" s="3">
         <v>42000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>71700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>54000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>58800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>71400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>69600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>74600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,67 +3525,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E59" s="3">
         <v>19500</v>
-      </c>
-      <c r="E59" s="3">
-        <v>17700</v>
       </c>
       <c r="F59" s="3">
         <v>17700</v>
       </c>
       <c r="G59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H59" s="3">
         <v>16700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,105 +3649,111 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1715200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1710200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1682400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1668000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1632400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1598400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1529200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1465400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1593800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1645000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1389300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1388400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1492100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1493200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1497300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1459900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1415900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2292200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2267000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>17500</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>900</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3615,20 +3761,23 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1836900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1819700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1804600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1769200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1711300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1655200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1591600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1740800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1784200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1539000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1559600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1661400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1663700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1661900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1602200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1546000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2446000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2405600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1023400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1000300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-939100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-855600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-792200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-754700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-716200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-704000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-799000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-772900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-745200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-745000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-717300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-691000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-703200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-617200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-449700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-738300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-681700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>293500</v>
+      </c>
+      <c r="E76" s="3">
         <v>317700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>376100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>454300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>501000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>550600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>616900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>662600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>609800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>682300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>952800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>944800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>963300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>980300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>959600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1036800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1093400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>829500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>888900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-41400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>118400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-58900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>316900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-28100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-26700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E83" s="3">
         <v>28600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>27400</v>
       </c>
       <c r="Q83" s="3">
         <v>27400</v>
       </c>
       <c r="R83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="S83" s="3">
         <v>28200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>29900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5100,25 +5321,28 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>179400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>78800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>131900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>919100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-11300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-13100</v>
       </c>
       <c r="G96" s="3">
         <v>-13100</v>
       </c>
       <c r="H96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-13300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-16700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-14000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-22000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-16000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-64100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-15400</v>
       </c>
       <c r="U96" s="3">
         <v>-15400</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-15400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>15900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>30700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-196500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-115300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-122100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-930500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>74200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3500</v>
       </c>
     </row>
